--- a/Eläinklinikka/Eläinklinikka/Eläinklinikka.xlsx
+++ b/Eläinklinikka/Eläinklinikka/Eläinklinikka.xlsx
@@ -31,7 +31,7 @@
     <x:t>Kokonaissumma</x:t>
   </x:si>
   <x:si>
-    <x:t>hi</x:t>
+    <x:t xml:space="preserve">Guna.UI.WinForms.GunaTextBox+ced3c96b1a986449683c9f78fac6f356a, Text: </x:t>
   </x:si>
   <x:si>
     <x:t>Indocin</x:t>
@@ -448,7 +448,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="1">
-        <x:v>44709.5769825926</x:v>
+        <x:v>44709.6237632292</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>7</x:v>

--- a/Eläinklinikka/Eläinklinikka/Eläinklinikka.xlsx
+++ b/Eläinklinikka/Eläinklinikka/Eläinklinikka.xlsx
@@ -31,7 +31,7 @@
     <x:t>Kokonaissumma</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Guna.UI.WinForms.GunaTextBox+ced3c96b1a986449683c9f78fac6f356a, Text: </x:t>
+    <x:t>Guna.UI.WinForms.GunaTextBox+ced3c96b1a986449683c9f78fac6f356a, Text: ghk</x:t>
   </x:si>
   <x:si>
     <x:t>Indocin</x:t>
@@ -448,7 +448,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="1">
-        <x:v>44709.6237632292</x:v>
+        <x:v>44710.6458894907</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>7</x:v>
